--- a/dSP/src/main/java/com/testdata/TestCaseName.xlsx
+++ b/dSP/src/main/java/com/testdata/TestCaseName.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="19935" windowHeight="6495"/>
+    <workbookView xWindow="6270" yWindow="1560" windowWidth="18225" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:N24"/>
+  <oleSize ref="A19:R35"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -45,6 +45,63 @@
   </si>
   <si>
     <t>TestCaseNo</t>
+  </si>
+  <si>
+    <t>Successful NB Order Request_JMS XML</t>
+  </si>
+  <si>
+    <t>Successful NB Order Request_JMS JSON</t>
+  </si>
+  <si>
+    <t>Successful NB Order Request_REST ASYNC XML</t>
+  </si>
+  <si>
+    <t>Successful NB Order Request_REST ASYNC JSON</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Invalid Request_JMS XML</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Invalid Request_JMS JSON</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Invalid Request_Rest Async_XML</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Invalid Request_Rest Async_JSON</t>
+  </si>
+  <si>
+    <t>Successful NB Order Request_JMS XML_SBDevice_SOAP</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Invalid Request_JMS XML_SBDevice_SOAP</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Invalid Request_JMS JSON_SBDevice_SOAP</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Invalid Request_Rest Async_XML_SBDevice_SOAP</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Invalid Request_Rest Async_JSON_SBDevice_SOAP</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Duplicate OrderID_JMS XML</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Duplicate OrderID_Rest Async_JSON</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Incorrect Provisioning URL_JMS XML</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Incorrect Provisioning URL_Rest Async_JSON</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Incorrect Command URL_JMS XML</t>
+  </si>
+  <si>
+    <t>Failed NB Order Request_Incorrect Command URL_Rest Async_JSON</t>
   </si>
 </sst>
 </file>
@@ -391,11 +448,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -474,6 +529,182 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
